--- a/OrderReport.xlsx
+++ b/OrderReport.xlsx
@@ -40,13 +40,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -84,16 +90,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
     </row>

--- a/OrderReport.xlsx
+++ b/OrderReport.xlsx
@@ -29,7 +29,7 @@
     <t>Guilhermee</t>
   </si>
   <si>
-    <t>1515151515</t>
+    <t>1515151516</t>
   </si>
   <si>
     <t>Confirmado</t>
